--- a/SalesLead.xlsx
+++ b/SalesLead.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10534BE5-A884-42B4-ADB7-FC36495EB531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A491347-83DD-44B5-A723-87954E0D4CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,10 +400,10 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>Rejcted</t>
-  </si>
-  <si>
     <t>Invalid Teststep</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="I27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" t="s">
         <v>126</v>
-      </c>
-      <c r="J27" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">

--- a/SalesLead.xlsx
+++ b/SalesLead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A491347-83DD-44B5-A723-87954E0D4CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4E040D-0249-4D96-875C-59F4441B623D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/SalesLead.xlsx
+++ b/SalesLead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinodjayanna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDA0814-CA6A-464F-A049-16448A4667D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD248D-F054-41FC-8D6A-0DFFF80880FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="520" windowWidth="21820" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="129">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -450,9 +453,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,13 +478,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K80" totalsRowShown="0">
-  <autoFilter ref="A1:K80" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -781,28 +781,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="4" width="72" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" customWidth="1"/>
-    <col min="8" max="8" width="58.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" customWidth="1"/>
+    <col min="8" max="8" width="58.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.36328125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -857,7 +857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
         <v>19</v>
       </c>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>25</v>
       </c>
@@ -901,7 +901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -912,7 +912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>31</v>
       </c>
@@ -923,7 +923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -934,7 +934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>37</v>
       </c>
@@ -945,7 +945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>40</v>
       </c>
@@ -956,7 +956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>43</v>
       </c>
@@ -967,7 +967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>46</v>
       </c>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>49</v>
       </c>
@@ -989,7 +989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>52</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>58</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>61</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>25</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>28</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>31</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
         <v>34</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>73</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
         <v>19</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>78</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F31" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F33" t="s">
         <v>31</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
         <v>34</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
         <v>37</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
         <v>40</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
         <v>43</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F38" t="s">
         <v>46</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F39" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F40" t="s">
         <v>52</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>55</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F42" t="s">
         <v>58</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F43" t="s">
         <v>61</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
         <v>105</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F45" t="s">
         <v>107</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>73</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>78</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F50" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F51" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F52" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F53" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F54" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F55" t="s">
         <v>40</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F56" t="s">
         <v>43</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
         <v>46</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F58" t="s">
         <v>49</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F59" t="s">
         <v>52</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F60" t="s">
         <v>55</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F61" t="s">
         <v>58</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F62" t="s">
         <v>61</v>
       </c>
@@ -1571,15 +1571,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F64" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F65" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F66" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F67" t="s">
         <v>25</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F68" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F69" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F70" t="s">
         <v>34</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F71" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F72" t="s">
         <v>40</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F73" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F74" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F75" t="s">
         <v>49</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F76" t="s">
         <v>52</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F77" t="s">
         <v>55</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F78" t="s">
         <v>58</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="6:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F79" t="s">
         <v>61</v>
       </c>
@@ -1755,7 +1764,6 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="6:8" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
